--- a/user_sheets/pedidos.xlsx
+++ b/user_sheets/pedidos.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="obs IA olhar em runtime e salvar" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,4 +457,125 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id_pedido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tipo_pedido</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>data_emissao_pedido</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id_cliente_fornecedor</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nome_cliente_fornecedor</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>status_pedido</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>data_entrega_prevista</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>data_entrega_real</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>valor_total_pedido</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>condicao_pagamento</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>observacoes_pedido</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>id_item_pedido</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>quantidade_item_pedido</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>preco_unitario_item_pedido</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>subtotal_item_pedido</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>impostos_item_pedido</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>descontos_item_pedido</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>data_ultima_atualizacao_pedido</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>usuario_ultima_atualizacao_pedido</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>rastreamento_envio</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>